--- a/data/vintage_data/data_20090512.xlsx
+++ b/data/vintage_data/data_20090512.xlsx
@@ -15553,9 +15553,7 @@
       <c r="V101" t="n">
         <v>-6.115930064579087</v>
       </c>
-      <c r="W101" t="n">
-        <v>9.042400000000001</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23168,16 +23166,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-51.59365280805554</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30798,7 +30796,9 @@
       <c r="O101" t="n">
         <v>933.2965638420676</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-51.59365280805554</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30809,9 +30809,7 @@
       <c r="V101" t="n">
         <v>-6.115930064579087</v>
       </c>
-      <c r="W101" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20090512.xlsx
+++ b/data/vintage_data/data_20090512.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W4" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W5" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W6" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W10" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W18" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W19" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W20" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.2</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W21" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.3</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.7</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W27" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W28" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W32" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W33" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W34" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W35" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W36" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W37" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -3368,9 +3606,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -3444,9 +3688,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.2</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -3520,9 +3770,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -3596,9 +3852,15 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -3672,9 +3934,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W44" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -3748,9 +4016,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -3824,9 +4098,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -3900,9 +4180,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -3976,9 +4262,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -4052,9 +4344,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -4128,9 +4426,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -4204,9 +4508,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -4280,9 +4590,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -4356,9 +4672,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -4432,9 +4754,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -4508,9 +4836,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -4584,9 +4918,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -4660,9 +5000,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -4736,9 +5082,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W58" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -4812,9 +5164,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -4888,9 +5246,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.3</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -4964,9 +5328,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W61" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -5040,9 +5410,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W62" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -5116,9 +5492,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -5192,9 +5574,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -5268,9 +5656,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W65" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -5344,9 +5738,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -5420,9 +5820,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W67" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -5496,9 +5902,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -5572,9 +5984,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W69" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -5648,9 +6066,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W70" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -5724,9 +6148,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W71" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.5</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -5800,9 +6230,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W72" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.7</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -5876,9 +6312,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W73" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -5952,9 +6394,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W74" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -6028,9 +6476,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W75" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -6104,9 +6558,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W76" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -6180,9 +6640,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W77" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -6256,9 +6722,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W78" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -6332,9 +6804,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W79" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -6408,9 +6886,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W80" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.9527177900777987</v>
       </c>
     </row>
@@ -6484,9 +6968,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W81" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3483314099498072</v>
       </c>
     </row>
@@ -6560,9 +7050,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W82" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8533695383772681</v>
       </c>
     </row>
@@ -6636,9 +7132,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W83" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3879698239140666</v>
       </c>
     </row>
@@ -6712,9 +7214,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W84" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.4139599479606549</v>
       </c>
     </row>
@@ -6788,9 +7296,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W85" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.06155709797972991</v>
       </c>
     </row>
@@ -6864,9 +7378,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.464390626928521</v>
       </c>
     </row>
@@ -6940,9 +7460,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W87" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.00416853223231674</v>
       </c>
     </row>
@@ -7016,9 +7542,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.2370597215311938</v>
       </c>
     </row>
@@ -7092,9 +7624,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.3618908708154899</v>
       </c>
     </row>
@@ -7168,9 +7706,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.1203581830622155</v>
       </c>
     </row>
@@ -7244,9 +7788,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>1.634087109896638</v>
       </c>
     </row>
@@ -7320,9 +7870,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.5</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.009675156935628532</v>
       </c>
     </row>
@@ -7396,9 +7952,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.1739944423175128</v>
       </c>
     </row>
@@ -7472,9 +8034,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.7</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6920161828071096</v>
       </c>
     </row>
@@ -7548,9 +8116,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W95" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.8</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.3866434545898013</v>
       </c>
     </row>
@@ -7624,9 +8198,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W96" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.2640821940760847</v>
       </c>
     </row>
@@ -7700,9 +8280,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W97" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y97" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1418731364265819</v>
       </c>
     </row>
@@ -7776,9 +8362,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W98" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.4292282565467386</v>
       </c>
     </row>
@@ -7852,9 +8444,15 @@
         <v>-8.940358636647815</v>
       </c>
       <c r="W99" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.120234387512973</v>
       </c>
     </row>
@@ -7926,9 +8524,13 @@
         <v>-13.19684852993494</v>
       </c>
       <c r="W100" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.298366109338086</v>
       </c>
     </row>
@@ -7943,7 +8545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8059,10 +8661,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8136,9 +8748,15 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -8210,9 +8828,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -8284,9 +8908,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W4" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -8358,9 +8988,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W5" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -8432,9 +9068,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W6" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -8506,9 +9148,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -8580,9 +9228,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -8654,9 +9308,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -8728,9 +9388,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W10" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -8802,9 +9468,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -8876,9 +9548,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -8950,9 +9628,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -9024,9 +9708,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -9098,9 +9788,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -9172,9 +9868,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -9246,9 +9948,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -9320,9 +10028,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W18" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -9394,9 +10108,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W19" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -9468,9 +10188,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W20" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.2</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -9542,9 +10268,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W21" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -9616,9 +10348,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -9690,9 +10428,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -9764,9 +10508,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.3</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -9838,9 +10588,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -9912,9 +10668,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.7</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -9986,9 +10748,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W27" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -10060,9 +10828,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W28" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -10134,9 +10908,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -10208,9 +10988,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -10282,9 +11068,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -10356,9 +11148,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W32" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -10430,9 +11228,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W33" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -10504,9 +11308,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W34" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -10578,9 +11388,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W35" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -10652,9 +11468,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W36" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -10726,9 +11548,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W37" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -10800,9 +11628,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -10874,9 +11708,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -10950,9 +11790,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -11026,9 +11872,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.2</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -11102,9 +11954,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -11178,9 +12036,15 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -11254,9 +12118,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W44" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -11330,9 +12200,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -11406,9 +12282,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -11482,9 +12364,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -11558,9 +12446,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -11634,9 +12528,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -11710,9 +12610,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -11786,9 +12692,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -11862,9 +12774,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -11938,9 +12856,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -12014,9 +12938,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -12090,9 +13020,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -12166,9 +13102,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -12242,9 +13184,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -12318,9 +13266,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W58" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -12394,9 +13348,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -12470,9 +13430,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.3</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -12546,9 +13512,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W61" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -12622,9 +13594,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W62" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -12698,9 +13676,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -12774,9 +13758,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -12850,9 +13840,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W65" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -12926,9 +13922,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -13002,9 +14004,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W67" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -13078,9 +14086,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -13154,9 +14168,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W69" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -13230,9 +14250,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W70" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -13306,9 +14332,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W71" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.5</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -13382,9 +14414,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W72" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.7</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -13458,9 +14496,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W73" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -13534,9 +14578,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W74" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -13610,9 +14660,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W75" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -13686,9 +14742,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W76" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -13762,9 +14824,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W77" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -13838,9 +14906,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W78" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -13914,9 +14988,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W79" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -13990,9 +15070,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W80" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.9527177900777987</v>
       </c>
     </row>
@@ -14066,9 +15152,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W81" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3483314099498072</v>
       </c>
     </row>
@@ -14142,9 +15234,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W82" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8533695383772681</v>
       </c>
     </row>
@@ -14218,9 +15316,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W83" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3879698239140666</v>
       </c>
     </row>
@@ -14294,9 +15398,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W84" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.4139599479606549</v>
       </c>
     </row>
@@ -14370,9 +15480,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W85" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.06155709797972991</v>
       </c>
     </row>
@@ -14446,9 +15562,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.464390626928521</v>
       </c>
     </row>
@@ -14522,9 +15644,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W87" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.00416853223231674</v>
       </c>
     </row>
@@ -14598,9 +15726,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.2370597215311938</v>
       </c>
     </row>
@@ -14674,9 +15808,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.3618908708154899</v>
       </c>
     </row>
@@ -14750,9 +15890,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.1203581830622155</v>
       </c>
     </row>
@@ -14826,9 +15972,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>1.634087109896638</v>
       </c>
     </row>
@@ -14902,9 +16054,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.5</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.009675156935628532</v>
       </c>
     </row>
@@ -14978,9 +16136,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.1739944423175128</v>
       </c>
     </row>
@@ -15054,9 +16218,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.7</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6920161828071096</v>
       </c>
     </row>
@@ -15130,9 +16300,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W95" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.8</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.3866434545898013</v>
       </c>
     </row>
@@ -15206,9 +16382,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W96" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.2640821940760847</v>
       </c>
     </row>
@@ -15282,9 +16464,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W97" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y97" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1418731364265819</v>
       </c>
     </row>
@@ -15358,9 +16546,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W98" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.4292282565467386</v>
       </c>
     </row>
@@ -15434,9 +16628,15 @@
         <v>-8.940358636647815</v>
       </c>
       <c r="W99" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.120234387512973</v>
       </c>
     </row>
@@ -15508,9 +16708,13 @@
         <v>-13.19684852993494</v>
       </c>
       <c r="W100" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.298366109338086</v>
       </c>
     </row>
@@ -15555,6 +16759,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15567,7 +16773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15683,10 +16889,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15760,9 +16976,15 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -15834,9 +17056,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -15908,9 +17136,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W4" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -15982,9 +17216,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W5" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -16056,9 +17296,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W6" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -16130,9 +17376,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -16204,9 +17456,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -16278,9 +17536,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -16352,9 +17616,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W10" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -16426,9 +17696,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -16500,9 +17776,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -16574,9 +17856,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -16648,9 +17936,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -16722,9 +18016,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -16796,9 +18096,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -16870,9 +18176,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -16944,9 +18256,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W18" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -17018,9 +18336,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W19" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -17092,9 +18416,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W20" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.2</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -17166,9 +18496,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W21" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -17240,9 +18576,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -17314,9 +18656,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -17388,9 +18736,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.3</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -17462,9 +18816,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -17536,9 +18896,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.7</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -17610,9 +18976,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W27" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -17684,9 +19056,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W28" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -17758,9 +19136,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -17832,9 +19216,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -17906,9 +19296,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -17980,9 +19376,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W32" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -18054,9 +19456,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W33" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -18128,9 +19536,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W34" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -18202,9 +19616,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W35" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -18276,9 +19696,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W36" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -18350,9 +19776,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W37" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -18424,9 +19856,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -18498,9 +19936,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -18574,9 +20018,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -18650,9 +20100,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.2</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -18726,9 +20182,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -18802,9 +20264,15 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -18878,9 +20346,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W44" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -18954,9 +20428,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -19030,9 +20510,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -19106,9 +20592,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -19182,9 +20674,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -19258,9 +20756,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -19334,9 +20838,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -19410,9 +20920,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -19486,9 +21002,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -19562,9 +21084,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -19638,9 +21166,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -19714,9 +21248,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -19790,9 +21330,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -19866,9 +21412,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -19942,9 +21494,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W58" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -20018,9 +21576,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -20094,9 +21658,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.3</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -20170,9 +21740,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W61" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -20246,9 +21822,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W62" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -20322,9 +21904,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -20398,9 +21986,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -20474,9 +22068,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W65" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -20550,9 +22150,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -20626,9 +22232,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W67" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -20702,9 +22314,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -20778,9 +22396,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W69" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -20854,9 +22478,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W70" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -20930,9 +22560,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W71" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.5</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -21006,9 +22642,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W72" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.7</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -21082,9 +22724,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W73" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -21158,9 +22806,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W74" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -21234,9 +22888,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W75" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -21310,9 +22970,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W76" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -21386,9 +23052,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W77" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -21462,9 +23134,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W78" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -21538,9 +23216,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W79" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -21614,9 +23298,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W80" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.9527177900777987</v>
       </c>
     </row>
@@ -21690,9 +23380,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W81" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3483314099498072</v>
       </c>
     </row>
@@ -21766,9 +23462,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W82" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8533695383772681</v>
       </c>
     </row>
@@ -21842,9 +23544,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W83" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3879698239140666</v>
       </c>
     </row>
@@ -21918,9 +23626,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W84" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.4139599479606549</v>
       </c>
     </row>
@@ -21994,9 +23708,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W85" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.06155709797972991</v>
       </c>
     </row>
@@ -22070,9 +23790,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.464390626928521</v>
       </c>
     </row>
@@ -22146,9 +23872,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W87" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.00416853223231674</v>
       </c>
     </row>
@@ -22222,9 +23954,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.2370597215311938</v>
       </c>
     </row>
@@ -22298,9 +24036,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.3618908708154899</v>
       </c>
     </row>
@@ -22374,9 +24118,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.1203581830622155</v>
       </c>
     </row>
@@ -22450,9 +24200,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>1.634087109896638</v>
       </c>
     </row>
@@ -22526,9 +24282,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.5</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.009675156935628532</v>
       </c>
     </row>
@@ -22602,9 +24364,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.1739944423175128</v>
       </c>
     </row>
@@ -22678,9 +24446,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.7</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6920161828071096</v>
       </c>
     </row>
@@ -22754,9 +24528,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W95" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.8</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.3866434545898013</v>
       </c>
     </row>
@@ -22830,9 +24610,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W96" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.2640821940760847</v>
       </c>
     </row>
@@ -22906,9 +24692,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W97" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y97" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1418731364265819</v>
       </c>
     </row>
@@ -22982,9 +24774,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W98" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.4292282565467386</v>
       </c>
     </row>
@@ -23058,9 +24856,15 @@
         <v>-8.940358636647815</v>
       </c>
       <c r="W99" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.120234387512973</v>
       </c>
     </row>
@@ -23132,9 +24936,13 @@
         <v>-13.19684852993494</v>
       </c>
       <c r="W100" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.298366109338086</v>
       </c>
     </row>
@@ -23166,9 +24974,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-51.59365280805554</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23177,6 +24983,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23189,7 +24997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23305,10 +25113,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23382,9 +25200,15 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -23456,9 +25280,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W3" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -23530,9 +25360,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W4" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -23604,9 +25440,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W5" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -23678,9 +25520,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W6" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -23752,9 +25600,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W7" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -23826,9 +25680,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W8" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -23900,9 +25760,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -23974,9 +25840,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W10" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -24048,9 +25920,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W11" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -24122,9 +26000,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -24196,9 +26080,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W13" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -24270,9 +26160,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -24344,9 +26240,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -24418,9 +26320,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W16" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -24492,9 +26400,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W17" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -24566,9 +26480,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W18" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -24640,9 +26560,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W19" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -24714,9 +26640,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W20" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.2</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -24788,9 +26720,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W21" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -24862,9 +26800,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W22" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -24936,9 +26880,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W23" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -25010,9 +26960,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.3</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -25084,9 +27040,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W25" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -25158,9 +27120,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W26" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.7</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -25232,9 +27200,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W27" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -25306,9 +27280,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W28" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -25380,9 +27360,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y29" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -25454,9 +27440,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W30" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y30" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -25528,9 +27520,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W31" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -25602,9 +27600,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W32" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -25676,9 +27680,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W33" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -25750,9 +27760,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W34" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -25824,9 +27840,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W35" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -25898,9 +27920,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W36" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -25972,9 +28000,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W37" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -26046,9 +28080,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -26120,9 +28160,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W39" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -26196,9 +28242,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W40" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -26272,9 +28324,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W41" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y41" t="n">
         <v>6.2</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -26348,9 +28406,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W42" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -26424,9 +28488,15 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -26500,9 +28570,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W44" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -26576,9 +28652,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -26652,9 +28734,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -26728,9 +28816,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -26804,9 +28898,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W48" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -26880,9 +28980,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.5</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -26956,9 +29062,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -27032,9 +29144,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W51" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -27108,9 +29226,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W52" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -27184,9 +29308,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W53" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -27260,9 +29390,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W54" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -27336,9 +29472,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -27412,9 +29554,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W56" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -27488,9 +29636,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W57" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -27564,9 +29718,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W58" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -27640,9 +29800,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W59" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -27716,9 +29882,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W60" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.3</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -27792,9 +29964,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W61" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -27868,9 +30046,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W62" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -27944,9 +30128,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -28020,9 +30210,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -28096,9 +30292,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W65" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -28172,9 +30374,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -28248,9 +30456,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W67" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y67" t="n">
         <v>3.9</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -28324,9 +30538,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W68" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -28400,9 +30620,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W69" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y69" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -28476,9 +30702,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W70" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -28552,9 +30784,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W71" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.5</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -28628,9 +30866,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W72" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.7</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -28704,9 +30948,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W73" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -28780,9 +31030,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W74" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -28856,9 +31112,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W75" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -28932,9 +31194,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W76" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -29008,9 +31276,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W77" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y77" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -29084,9 +31358,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W78" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y78" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -29160,9 +31440,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W79" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -29236,9 +31522,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W80" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.7</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>-0.9527177900777987</v>
       </c>
     </row>
@@ -29312,9 +31604,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W81" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.3483314099498072</v>
       </c>
     </row>
@@ -29388,9 +31686,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W82" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8533695383772681</v>
       </c>
     </row>
@@ -29464,9 +31768,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W83" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3879698239140666</v>
       </c>
     </row>
@@ -29540,9 +31850,15 @@
         <v>3.21687558465296</v>
       </c>
       <c r="W84" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.4139599479606549</v>
       </c>
     </row>
@@ -29616,9 +31932,15 @@
         <v>3.976346544761345</v>
       </c>
       <c r="W85" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.06155709797972991</v>
       </c>
     </row>
@@ -29692,9 +32014,15 @@
         <v>3.595834892921651</v>
       </c>
       <c r="W86" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.464390626928521</v>
       </c>
     </row>
@@ -29768,9 +32096,15 @@
         <v>1.937654985576635</v>
       </c>
       <c r="W87" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.00416853223231674</v>
       </c>
     </row>
@@ -29844,9 +32178,15 @@
         <v>0.6953958235231033</v>
       </c>
       <c r="W88" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>0.2370597215311938</v>
       </c>
     </row>
@@ -29920,9 +32260,15 @@
         <v>-3.590484560599622</v>
       </c>
       <c r="W89" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.3618908708154899</v>
       </c>
     </row>
@@ -29996,9 +32342,15 @@
         <v>-5.727914668848501</v>
       </c>
       <c r="W90" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>-0.1203581830622155</v>
       </c>
     </row>
@@ -30072,9 +32424,15 @@
         <v>-4.472346478687847</v>
       </c>
       <c r="W91" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>1.634087109896638</v>
       </c>
     </row>
@@ -30148,9 +32506,15 @@
         <v>-3.910708324576738</v>
       </c>
       <c r="W92" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.5</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.009675156935628532</v>
       </c>
     </row>
@@ -30224,9 +32588,15 @@
         <v>-3.395248762373774</v>
       </c>
       <c r="W93" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.1739944423175128</v>
       </c>
     </row>
@@ -30300,9 +32670,15 @@
         <v>-5.706852862330961</v>
       </c>
       <c r="W94" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.7</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>0.6920161828071096</v>
       </c>
     </row>
@@ -30376,9 +32752,15 @@
         <v>-7.873579093481088</v>
       </c>
       <c r="W95" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.8</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>0.3866434545898013</v>
       </c>
     </row>
@@ -30452,9 +32834,15 @@
         <v>-7.862880601752931</v>
       </c>
       <c r="W96" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.2640821940760847</v>
       </c>
     </row>
@@ -30528,9 +32916,15 @@
         <v>-4.472723043752771</v>
       </c>
       <c r="W97" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y97" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.1418731364265819</v>
       </c>
     </row>
@@ -30604,9 +32998,15 @@
         <v>-5.202310727507589</v>
       </c>
       <c r="W98" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y98" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.4292282565467386</v>
       </c>
     </row>
@@ -30680,9 +33080,15 @@
         <v>-8.940358636647815</v>
       </c>
       <c r="W99" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y99" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>1.120234387512973</v>
       </c>
     </row>
@@ -30754,9 +33160,13 @@
         <v>-13.19684852993494</v>
       </c>
       <c r="W100" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.298366109338086</v>
       </c>
     </row>
@@ -30796,9 +33206,7 @@
       <c r="O101" t="n">
         <v>933.2965638420676</v>
       </c>
-      <c r="P101" t="n">
-        <v>-51.59365280805554</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30811,6 +33219,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20090512.xlsx
+++ b/data/vintage_data/data_20090512.xlsx
@@ -16759,7 +16759,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>9.042400000000001</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33219,7 +33221,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>9.042400000000001</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
